--- a/parser/public/data/MetaEdiciones.xlsx
+++ b/parser/public/data/MetaEdiciones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/dev/lab/mujeres-de-prensa/parser/public/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soporte/lab/mujeres-de-prensa/parser/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{014C6A66-A2F2-0640-BBF4-72C3D49D34BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49600" yWindow="2540" windowWidth="27360" windowHeight="15820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="11040" yWindow="2540" windowWidth="27360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mireya" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Contrastes" sheetId="5" r:id="rId5"/>
     <sheet name="Mujer" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="165">
   <si>
     <t>Volumen</t>
   </si>
@@ -521,12 +522,15 @@
   </si>
   <si>
     <t>No.24</t>
+  </si>
+  <si>
+    <t>No.9/Jun/1944</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -576,6 +580,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -843,11 +850,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,7 +880,7 @@
         <v>Oct</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C23" si="0">RIGHT(D2, 4)</f>
+        <f t="shared" ref="C2:C24" si="0">RIGHT(D2, 4)</f>
         <v>1943</v>
       </c>
       <c r="D2" t="s">
@@ -882,11 +889,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A23" si="1">SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
+        <f t="shared" ref="A3:A24" si="1">SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
         <v>3</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B23" si="2">MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <f t="shared" ref="B3:B24" si="2">MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
         <v>Dic</v>
       </c>
       <c r="C3" t="str">
@@ -968,272 +975,289 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
-        <v>10 y 11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="2"/>
-        <v>Jul y Ago</v>
+        <v>Jun</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>1944</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10 y 11</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="2"/>
-        <v>Sep</v>
+        <v>Jul y Ago</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>1944</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="2"/>
-        <v>Nov</v>
+        <v>Sep</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>1944</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="2"/>
-        <v>Dic</v>
+        <v>Nov</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>1944</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="2"/>
-        <v>Ene</v>
+        <v>Dic</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="2"/>
-        <v>Feb</v>
+        <v>Ene</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>1945</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="2"/>
-        <v>Abr</v>
+        <v>Feb</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>1945</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="2"/>
-        <v>May</v>
+        <v>Abr</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>1945</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="2"/>
-        <v>Jun</v>
+        <v>May</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>1945</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="2"/>
-        <v>Jul</v>
+        <v>Jun</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>1945</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="2"/>
-        <v>Ago</v>
+        <v>Jul</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>1945</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="2"/>
-        <v>Oct</v>
+        <v>Ago</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>1945</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
-        <v>23 y 24</v>
+        <v>22</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="2"/>
-        <v>Nov y Dic</v>
+        <v>Oct</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>1945</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>23 y 24</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="2"/>
-        <v>Abr</v>
+        <v>Nov y Dic</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="2"/>
-        <v>Sep</v>
+        <v>Abr</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>1946</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="2"/>
+        <v>Sep</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>1946</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B24" t="str">
         <f t="shared" si="2"/>
         <v>Oct</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>1946</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1243,7 +1267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1592,7 +1616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2009,10 +2033,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2227,7 +2251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2338,7 +2362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/parser/public/data/MetaEdiciones.xlsx
+++ b/parser/public/data/MetaEdiciones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soporte/lab/mujeres-de-prensa/parser/public/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/dev/lab/mujeres-de-prensa/parser/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{014C6A66-A2F2-0640-BBF4-72C3D49D34BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="2540" windowWidth="27360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="840" windowWidth="27360" windowHeight="15820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mireya" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Contrastes" sheetId="5" r:id="rId5"/>
     <sheet name="Mujer" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -452,21 +451,6 @@
     <t>No.108/Oct/1971</t>
   </si>
   <si>
-    <t>No.1</t>
-  </si>
-  <si>
-    <t>No.2</t>
-  </si>
-  <si>
-    <t>No.3</t>
-  </si>
-  <si>
-    <t>No.4</t>
-  </si>
-  <si>
-    <t>No.5</t>
-  </si>
-  <si>
     <t>No.6</t>
   </si>
   <si>
@@ -525,12 +509,27 @@
   </si>
   <si>
     <t>No.9/Jun/1944</t>
+  </si>
+  <si>
+    <t>No.1/Feb/1955</t>
+  </si>
+  <si>
+    <t>No.4/Mar/1955</t>
+  </si>
+  <si>
+    <t>No.5/Mar/1955</t>
+  </si>
+  <si>
+    <t>No.2/Feb/1955</t>
+  </si>
+  <si>
+    <t>No.3/Mar/1955</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -850,10 +849,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -986,7 +985,7 @@
         <v>1944</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1267,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1616,11 +1615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2033,14 +2032,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2054,195 +2056,411 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="str">
+        <f>SUBSTITUTE(LEFT(D2,FIND("/",D2) - 1), "No.", "",1)</f>
         <v>1</v>
       </c>
+      <c r="B2" t="str">
+        <f>MID(D2, FIND("/", D2) + 1, FIND( "!", SUBSTITUTE(D2, "/", "!", 2) ) - 2 - FIND("/", D2) + 1 )</f>
+        <v>Feb</v>
+      </c>
+      <c r="C2" t="str">
+        <f>RIGHT(D2, 4)</f>
+        <v>1955</v>
+      </c>
       <c r="D2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <v>Feb</v>
+      </c>
+      <c r="C3" t="str">
+        <f>RIGHT(D3, 4)</f>
+        <v>1955</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>SUBSTITUTE(LEFT(D4,FIND("/",D4) - 1), "No.", "",1)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>MID(D4, FIND("/", D4) + 1, FIND( "!", SUBSTITUTE(D4, "/", "!", 2) ) - 2 - FIND("/", D4) + 1 )</f>
+        <v>Mar</v>
+      </c>
+      <c r="C4" t="str">
+        <f>RIGHT(D4, 4)</f>
+        <v>1955</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>SUBSTITUTE(LEFT(D5,FIND("/",D5) - 1), "No.", "",1)</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>MID(D5, FIND("/", D5) + 1, FIND( "!", SUBSTITUTE(D5, "/", "!", 2) ) - 2 - FIND("/", D5) + 1 )</f>
+        <v>Mar</v>
+      </c>
+      <c r="C5" t="str">
+        <f>RIGHT(D5, 4)</f>
+        <v>1955</v>
+      </c>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>SUBSTITUTE(LEFT(D6,FIND("/",D6) - 1), "No.", "",1)</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>MID(D6, FIND("/", D6) + 1, FIND( "!", SUBSTITUTE(D6, "/", "!", 2) ) - 2 - FIND("/", D6) + 1 )</f>
+        <v>Mar</v>
+      </c>
+      <c r="C6" t="str">
+        <f>RIGHT(D6, 4)</f>
+        <v>1955</v>
+      </c>
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="e">
+        <f>SUBSTITUTE(LEFT(D7,FIND("/",D7) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" t="e">
+        <f>MID(D7, FIND("/", D7) + 1, FIND( "!", SUBSTITUTE(D7, "/", "!", 2) ) - 2 - FIND("/", D7) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7" t="str">
+        <f>RIGHT(D7, 4)</f>
+        <v>No.6</v>
+      </c>
+      <c r="D7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="e">
+        <f>SUBSTITUTE(LEFT(D8,FIND("/",D8) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B8" t="e">
+        <f>MID(D8, FIND("/", D8) + 1, FIND( "!", SUBSTITUTE(D8, "/", "!", 2) ) - 2 - FIND("/", D8) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" t="str">
+        <f>RIGHT(D8, 4)</f>
+        <v>No.7</v>
+      </c>
+      <c r="D8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="e">
+        <f>SUBSTITUTE(LEFT(D9,FIND("/",D9) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B9" t="e">
+        <f>MID(D9, FIND("/", D9) + 1, FIND( "!", SUBSTITUTE(D9, "/", "!", 2) ) - 2 - FIND("/", D9) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" t="str">
+        <f>RIGHT(D9, 4)</f>
+        <v>No.8</v>
+      </c>
+      <c r="D9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="e">
+        <f>SUBSTITUTE(LEFT(D10,FIND("/",D10) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B10" t="e">
+        <f>MID(D10, FIND("/", D10) + 1, FIND( "!", SUBSTITUTE(D10, "/", "!", 2) ) - 2 - FIND("/", D10) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" t="str">
+        <f>RIGHT(D10, 4)</f>
+        <v>No.9</v>
+      </c>
+      <c r="D10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="e">
+        <f>SUBSTITUTE(LEFT(D11,FIND("/",D11) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B11" t="e">
+        <f>MID(D11, FIND("/", D11) + 1, FIND( "!", SUBSTITUTE(D11, "/", "!", 2) ) - 2 - FIND("/", D11) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" t="str">
+        <f>RIGHT(D11, 4)</f>
+        <v>o.10</v>
+      </c>
+      <c r="D11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="e">
+        <f>SUBSTITUTE(LEFT(D12,FIND("/",D12) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B12" t="e">
+        <f>MID(D12, FIND("/", D12) + 1, FIND( "!", SUBSTITUTE(D12, "/", "!", 2) ) - 2 - FIND("/", D12) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" t="str">
+        <f>RIGHT(D12, 4)</f>
+        <v>o.11</v>
+      </c>
+      <c r="D12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="e">
+        <f>SUBSTITUTE(LEFT(D13,FIND("/",D13) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B13" t="e">
+        <f>MID(D13, FIND("/", D13) + 1, FIND( "!", SUBSTITUTE(D13, "/", "!", 2) ) - 2 - FIND("/", D13) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" t="str">
+        <f>RIGHT(D13, 4)</f>
+        <v>o.12</v>
+      </c>
+      <c r="D13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="e">
+        <f>SUBSTITUTE(LEFT(D14,FIND("/",D14) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B14" t="e">
+        <f>MID(D14, FIND("/", D14) + 1, FIND( "!", SUBSTITUTE(D14, "/", "!", 2) ) - 2 - FIND("/", D14) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" t="str">
+        <f>RIGHT(D14, 4)</f>
+        <v>o.13</v>
+      </c>
+      <c r="D14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="e">
+        <f>SUBSTITUTE(LEFT(D15,FIND("/",D15) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" t="e">
+        <f>MID(D15, FIND("/", D15) + 1, FIND( "!", SUBSTITUTE(D15, "/", "!", 2) ) - 2 - FIND("/", D15) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" t="str">
+        <f>RIGHT(D15, 4)</f>
+        <v>o.14</v>
+      </c>
+      <c r="D15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="e">
+        <f>SUBSTITUTE(LEFT(D16,FIND("/",D16) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B16" t="e">
+        <f>MID(D16, FIND("/", D16) + 1, FIND( "!", SUBSTITUTE(D16, "/", "!", 2) ) - 2 - FIND("/", D16) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" t="str">
+        <f>RIGHT(D16, 4)</f>
+        <v>o.15</v>
+      </c>
+      <c r="D16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="e">
+        <f>SUBSTITUTE(LEFT(D17,FIND("/",D17) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B17" t="e">
+        <f>MID(D17, FIND("/", D17) + 1, FIND( "!", SUBSTITUTE(D17, "/", "!", 2) ) - 2 - FIND("/", D17) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" t="str">
+        <f>RIGHT(D17, 4)</f>
+        <v>o.16</v>
+      </c>
+      <c r="D17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="e">
+        <f>SUBSTITUTE(LEFT(D18,FIND("/",D18) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B18" t="e">
+        <f>MID(D18, FIND("/", D18) + 1, FIND( "!", SUBSTITUTE(D18, "/", "!", 2) ) - 2 - FIND("/", D18) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" t="str">
+        <f>RIGHT(D18, 4)</f>
+        <v>o.17</v>
+      </c>
+      <c r="D18" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="e">
+        <f>SUBSTITUTE(LEFT(D19,FIND("/",D19) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B19" t="e">
+        <f>MID(D19, FIND("/", D19) + 1, FIND( "!", SUBSTITUTE(D19, "/", "!", 2) ) - 2 - FIND("/", D19) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" t="str">
+        <f>RIGHT(D19, 4)</f>
+        <v>o.18</v>
+      </c>
+      <c r="D19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="e">
+        <f>SUBSTITUTE(LEFT(D20,FIND("/",D20) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B20" t="e">
+        <f>MID(D20, FIND("/", D20) + 1, FIND( "!", SUBSTITUTE(D20, "/", "!", 2) ) - 2 - FIND("/", D20) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" t="str">
+        <f>RIGHT(D20, 4)</f>
+        <v>o.19</v>
+      </c>
+      <c r="D20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="e">
+        <f>SUBSTITUTE(LEFT(D21,FIND("/",D21) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B21" t="e">
+        <f>MID(D21, FIND("/", D21) + 1, FIND( "!", SUBSTITUTE(D21, "/", "!", 2) ) - 2 - FIND("/", D21) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" t="str">
+        <f>RIGHT(D21, 4)</f>
+        <v>o.20</v>
+      </c>
+      <c r="D21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="e">
+        <f>SUBSTITUTE(LEFT(D22,FIND("/",D22) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" t="e">
+        <f>MID(D22, FIND("/", D22) + 1, FIND( "!", SUBSTITUTE(D22, "/", "!", 2) ) - 2 - FIND("/", D22) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22" t="str">
+        <f>RIGHT(D22, 4)</f>
+        <v>o.21</v>
+      </c>
+      <c r="D22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="e">
+        <f>SUBSTITUTE(LEFT(D23,FIND("/",D23) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B23" t="e">
+        <f>MID(D23, FIND("/", D23) + 1, FIND( "!", SUBSTITUTE(D23, "/", "!", 2) ) - 2 - FIND("/", D23) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" t="str">
+        <f>RIGHT(D23, 4)</f>
+        <v>o.22</v>
+      </c>
+      <c r="D23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="e">
+        <f>SUBSTITUTE(LEFT(D24,FIND("/",D24) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B24" t="e">
+        <f>MID(D24, FIND("/", D24) + 1, FIND( "!", SUBSTITUTE(D24, "/", "!", 2) ) - 2 - FIND("/", D24) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" t="str">
+        <f>RIGHT(D24, 4)</f>
+        <v>o.23</v>
+      </c>
+      <c r="D24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="e">
+        <f>SUBSTITUTE(LEFT(D25,FIND("/",D25) - 1), "No.", "",1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B25" t="e">
+        <f>MID(D25, FIND("/", D25) + 1, FIND( "!", SUBSTITUTE(D25, "/", "!", 2) ) - 2 - FIND("/", D25) + 1 )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C25" t="str">
+        <f>RIGHT(D25, 4)</f>
+        <v>o.24</v>
+      </c>
+      <c r="D25" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2251,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2362,11 +2580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/parser/public/data/MetaEdiciones.xlsx
+++ b/parser/public/data/MetaEdiciones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="840" windowWidth="27360" windowHeight="15820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="52040" yWindow="1100" windowWidth="27360" windowHeight="15820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mireya" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="164">
   <si>
     <t>Volumen</t>
   </si>
@@ -451,63 +451,6 @@
     <t>No.108/Oct/1971</t>
   </si>
   <si>
-    <t>No.6</t>
-  </si>
-  <si>
-    <t>No.7</t>
-  </si>
-  <si>
-    <t>No.8</t>
-  </si>
-  <si>
-    <t>No.9</t>
-  </si>
-  <si>
-    <t>No.10</t>
-  </si>
-  <si>
-    <t>No.11</t>
-  </si>
-  <si>
-    <t>No.12</t>
-  </si>
-  <si>
-    <t>No.13</t>
-  </si>
-  <si>
-    <t>No.14</t>
-  </si>
-  <si>
-    <t>No.15</t>
-  </si>
-  <si>
-    <t>No.16</t>
-  </si>
-  <si>
-    <t>No.17</t>
-  </si>
-  <si>
-    <t>No.18</t>
-  </si>
-  <si>
-    <t>No.19</t>
-  </si>
-  <si>
-    <t>No.20</t>
-  </si>
-  <si>
-    <t>No.21</t>
-  </si>
-  <si>
-    <t>No.22</t>
-  </si>
-  <si>
-    <t>No.23</t>
-  </si>
-  <si>
-    <t>No.24</t>
-  </si>
-  <si>
     <t>No.9/Jun/1944</t>
   </si>
   <si>
@@ -524,6 +467,60 @@
   </si>
   <si>
     <t>No.3/Mar/1955</t>
+  </si>
+  <si>
+    <t>No.6/Mar/1955</t>
+  </si>
+  <si>
+    <t>No.7/Mar/1955</t>
+  </si>
+  <si>
+    <t>No.8/Abr/1955</t>
+  </si>
+  <si>
+    <t>No.9/Apr/1955</t>
+  </si>
+  <si>
+    <t>No.10/Abr/1955</t>
+  </si>
+  <si>
+    <t>No.11/May/1955</t>
+  </si>
+  <si>
+    <t>No.12/May/1955</t>
+  </si>
+  <si>
+    <t>No.13/May/1955</t>
+  </si>
+  <si>
+    <t>No.14/May/1955</t>
+  </si>
+  <si>
+    <t>No.15/Jun/1955</t>
+  </si>
+  <si>
+    <t>No.17/Jun/1955</t>
+  </si>
+  <si>
+    <t>No.18/Jun/1955</t>
+  </si>
+  <si>
+    <t>No.19/Jun/1955</t>
+  </si>
+  <si>
+    <t>No.20/Jul/1955</t>
+  </si>
+  <si>
+    <t>No.21/Jul/1955</t>
+  </si>
+  <si>
+    <t>No.22/Jul/1955</t>
+  </si>
+  <si>
+    <t>No.23/Ago/1955</t>
+  </si>
+  <si>
+    <t>No.24/Ago/1955</t>
   </si>
 </sst>
 </file>
@@ -985,7 +982,7 @@
         <v>1944</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2036,7 +2033,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2057,410 +2054,410 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>SUBSTITUTE(LEFT(D2,FIND("/",D2) - 1), "No.", "",1)</f>
+        <f t="shared" ref="A2:A25" si="0">SUBSTITUTE(LEFT(D2,FIND("/",D2) - 1), "No.", "",1)</f>
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>MID(D2, FIND("/", D2) + 1, FIND( "!", SUBSTITUTE(D2, "/", "!", 2) ) - 2 - FIND("/", D2) + 1 )</f>
+        <f t="shared" ref="B2:B25" si="1">MID(D2, FIND("/", D2) + 1, FIND( "!", SUBSTITUTE(D2, "/", "!", 2) ) - 2 - FIND("/", D2) + 1 )</f>
         <v>Feb</v>
       </c>
       <c r="C2" t="str">
-        <f>RIGHT(D2, 4)</f>
+        <f t="shared" ref="C2:C25" si="2">RIGHT(D2, 4)</f>
         <v>1955</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
       <c r="C3" t="str">
-        <f>RIGHT(D3, 4)</f>
+        <f t="shared" si="2"/>
         <v>1955</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>SUBSTITUTE(LEFT(D4,FIND("/",D4) - 1), "No.", "",1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>MID(D4, FIND("/", D4) + 1, FIND( "!", SUBSTITUTE(D4, "/", "!", 2) ) - 2 - FIND("/", D4) + 1 )</f>
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
       <c r="C4" t="str">
-        <f>RIGHT(D4, 4)</f>
+        <f t="shared" si="2"/>
         <v>1955</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>SUBSTITUTE(LEFT(D5,FIND("/",D5) - 1), "No.", "",1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>MID(D5, FIND("/", D5) + 1, FIND( "!", SUBSTITUTE(D5, "/", "!", 2) ) - 2 - FIND("/", D5) + 1 )</f>
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
       <c r="C5" t="str">
-        <f>RIGHT(D5, 4)</f>
+        <f t="shared" si="2"/>
         <v>1955</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>SUBSTITUTE(LEFT(D6,FIND("/",D6) - 1), "No.", "",1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>MID(D6, FIND("/", D6) + 1, FIND( "!", SUBSTITUTE(D6, "/", "!", 2) ) - 2 - FIND("/", D6) + 1 )</f>
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
       <c r="C6" t="str">
-        <f>RIGHT(D6, 4)</f>
+        <f t="shared" si="2"/>
         <v>1955</v>
       </c>
       <c r="D6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>Abr</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>Apr</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>Abr</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>May</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>May</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>May</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>May</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>Jun</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>Jun</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>Jun</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>Jun</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>Jun</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>Jul</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>Jul</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>Jul</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>Ago</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="e">
-        <f>SUBSTITUTE(LEFT(D7,FIND("/",D7) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B7" t="e">
-        <f>MID(D7, FIND("/", D7) + 1, FIND( "!", SUBSTITUTE(D7, "/", "!", 2) ) - 2 - FIND("/", D7) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C7" t="str">
-        <f>RIGHT(D7, 4)</f>
-        <v>No.6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="e">
-        <f>SUBSTITUTE(LEFT(D8,FIND("/",D8) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B8" t="e">
-        <f>MID(D8, FIND("/", D8) + 1, FIND( "!", SUBSTITUTE(D8, "/", "!", 2) ) - 2 - FIND("/", D8) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" t="str">
-        <f>RIGHT(D8, 4)</f>
-        <v>No.7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="e">
-        <f>SUBSTITUTE(LEFT(D9,FIND("/",D9) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B9" t="e">
-        <f>MID(D9, FIND("/", D9) + 1, FIND( "!", SUBSTITUTE(D9, "/", "!", 2) ) - 2 - FIND("/", D9) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" t="str">
-        <f>RIGHT(D9, 4)</f>
-        <v>No.8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="e">
-        <f>SUBSTITUTE(LEFT(D10,FIND("/",D10) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B10" t="e">
-        <f>MID(D10, FIND("/", D10) + 1, FIND( "!", SUBSTITUTE(D10, "/", "!", 2) ) - 2 - FIND("/", D10) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" t="str">
-        <f>RIGHT(D10, 4)</f>
-        <v>No.9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="e">
-        <f>SUBSTITUTE(LEFT(D11,FIND("/",D11) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B11" t="e">
-        <f>MID(D11, FIND("/", D11) + 1, FIND( "!", SUBSTITUTE(D11, "/", "!", 2) ) - 2 - FIND("/", D11) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" t="str">
-        <f>RIGHT(D11, 4)</f>
-        <v>o.10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="e">
-        <f>SUBSTITUTE(LEFT(D12,FIND("/",D12) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B12" t="e">
-        <f>MID(D12, FIND("/", D12) + 1, FIND( "!", SUBSTITUTE(D12, "/", "!", 2) ) - 2 - FIND("/", D12) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" t="str">
-        <f>RIGHT(D12, 4)</f>
-        <v>o.11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="e">
-        <f>SUBSTITUTE(LEFT(D13,FIND("/",D13) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B13" t="e">
-        <f>MID(D13, FIND("/", D13) + 1, FIND( "!", SUBSTITUTE(D13, "/", "!", 2) ) - 2 - FIND("/", D13) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" t="str">
-        <f>RIGHT(D13, 4)</f>
-        <v>o.12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="e">
-        <f>SUBSTITUTE(LEFT(D14,FIND("/",D14) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B14" t="e">
-        <f>MID(D14, FIND("/", D14) + 1, FIND( "!", SUBSTITUTE(D14, "/", "!", 2) ) - 2 - FIND("/", D14) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" t="str">
-        <f>RIGHT(D14, 4)</f>
-        <v>o.13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="e">
-        <f>SUBSTITUTE(LEFT(D15,FIND("/",D15) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B15" t="e">
-        <f>MID(D15, FIND("/", D15) + 1, FIND( "!", SUBSTITUTE(D15, "/", "!", 2) ) - 2 - FIND("/", D15) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" t="str">
-        <f>RIGHT(D15, 4)</f>
-        <v>o.14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="e">
-        <f>SUBSTITUTE(LEFT(D16,FIND("/",D16) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B16" t="e">
-        <f>MID(D16, FIND("/", D16) + 1, FIND( "!", SUBSTITUTE(D16, "/", "!", 2) ) - 2 - FIND("/", D16) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" t="str">
-        <f>RIGHT(D16, 4)</f>
-        <v>o.15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="e">
-        <f>SUBSTITUTE(LEFT(D17,FIND("/",D17) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B17" t="e">
-        <f>MID(D17, FIND("/", D17) + 1, FIND( "!", SUBSTITUTE(D17, "/", "!", 2) ) - 2 - FIND("/", D17) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" t="str">
-        <f>RIGHT(D17, 4)</f>
-        <v>o.16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="e">
-        <f>SUBSTITUTE(LEFT(D18,FIND("/",D18) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B18" t="e">
-        <f>MID(D18, FIND("/", D18) + 1, FIND( "!", SUBSTITUTE(D18, "/", "!", 2) ) - 2 - FIND("/", D18) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C18" t="str">
-        <f>RIGHT(D18, 4)</f>
-        <v>o.17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="e">
-        <f>SUBSTITUTE(LEFT(D19,FIND("/",D19) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B19" t="e">
-        <f>MID(D19, FIND("/", D19) + 1, FIND( "!", SUBSTITUTE(D19, "/", "!", 2) ) - 2 - FIND("/", D19) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" t="str">
-        <f>RIGHT(D19, 4)</f>
-        <v>o.18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="e">
-        <f>SUBSTITUTE(LEFT(D20,FIND("/",D20) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B20" t="e">
-        <f>MID(D20, FIND("/", D20) + 1, FIND( "!", SUBSTITUTE(D20, "/", "!", 2) ) - 2 - FIND("/", D20) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C20" t="str">
-        <f>RIGHT(D20, 4)</f>
-        <v>o.19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="e">
-        <f>SUBSTITUTE(LEFT(D21,FIND("/",D21) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B21" t="e">
-        <f>MID(D21, FIND("/", D21) + 1, FIND( "!", SUBSTITUTE(D21, "/", "!", 2) ) - 2 - FIND("/", D21) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C21" t="str">
-        <f>RIGHT(D21, 4)</f>
-        <v>o.20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="e">
-        <f>SUBSTITUTE(LEFT(D22,FIND("/",D22) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B22" t="e">
-        <f>MID(D22, FIND("/", D22) + 1, FIND( "!", SUBSTITUTE(D22, "/", "!", 2) ) - 2 - FIND("/", D22) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C22" t="str">
-        <f>RIGHT(D22, 4)</f>
-        <v>o.21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="e">
-        <f>SUBSTITUTE(LEFT(D23,FIND("/",D23) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B23" t="e">
-        <f>MID(D23, FIND("/", D23) + 1, FIND( "!", SUBSTITUTE(D23, "/", "!", 2) ) - 2 - FIND("/", D23) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C23" t="str">
-        <f>RIGHT(D23, 4)</f>
-        <v>o.22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="e">
-        <f>SUBSTITUTE(LEFT(D24,FIND("/",D24) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B24" t="e">
-        <f>MID(D24, FIND("/", D24) + 1, FIND( "!", SUBSTITUTE(D24, "/", "!", 2) ) - 2 - FIND("/", D24) + 1 )</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C24" t="str">
-        <f>RIGHT(D24, 4)</f>
-        <v>o.23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>157</v>
-      </c>
-    </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="e">
-        <f>SUBSTITUTE(LEFT(D25,FIND("/",D25) - 1), "No.", "",1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B25" t="e">
-        <f>MID(D25, FIND("/", D25) + 1, FIND( "!", SUBSTITUTE(D25, "/", "!", 2) ) - 2 - FIND("/", D25) + 1 )</f>
-        <v>#VALUE!</v>
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>Ago</v>
       </c>
       <c r="C25" t="str">
-        <f>RIGHT(D25, 4)</f>
-        <v>o.24</v>
+        <f t="shared" si="2"/>
+        <v>1955</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/parser/public/data/MetaEdiciones.xlsx
+++ b/parser/public/data/MetaEdiciones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/dev/lab/mujeres-de-prensa/parser/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{28198A17-DA29-534A-9BAA-47CD12C48A05}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52040" yWindow="1100" windowWidth="27360" windowHeight="15820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1440" yWindow="1100" windowWidth="27360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mireya" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Contrastes" sheetId="5" r:id="rId5"/>
     <sheet name="Mujer" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -526,7 +527,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -846,11 +847,426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>SUBSTITUTE(LEFT(D2,FIND("/",D2) - 1), "No.", "",1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>MID(D2, FIND("/", D2) + 1, FIND( "!", SUBSTITUTE(D2, "/", "!", 2) ) - 2 - FIND("/", D2) + 1 )</f>
+        <v>Oct</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C24" si="0">RIGHT(D2, 4)</f>
+        <v>1943</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A24" si="1">SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B24" si="2">MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <v>Dic</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>1943</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="2"/>
+        <v>Ene</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="1"/>
+        <v>7 y 8</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abr y May</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="2"/>
+        <v>Jun</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="1"/>
+        <v>10 y 11</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="2"/>
+        <v>Jul y Ago</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="2"/>
+        <v>Sep</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="2"/>
+        <v>Nov</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="2"/>
+        <v>Dic</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="2"/>
+        <v>Ene</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="2"/>
+        <v>Abr</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="2"/>
+        <v>May</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="2"/>
+        <v>Jun</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="2"/>
+        <v>Jul</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="2"/>
+        <v>Ago</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="2"/>
+        <v>Oct</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>23 y 24</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="2"/>
+        <v>Nov y Dic</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="2"/>
+        <v>Abr</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>1946</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="2"/>
+        <v>Sep</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>1946</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="2"/>
+        <v>Oct</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>1946</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,385 +1292,317 @@
         <v>Oct</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C24" si="0">RIGHT(D2, 4)</f>
-        <v>1943</v>
+        <f>RIGHT(D2, 4)</f>
+        <v>1944</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A24" si="1">SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
-        <v>3</v>
+        <f t="shared" ref="A3:A20" si="0">SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B24" si="2">MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
-        <v>Dic</v>
+        <f t="shared" ref="B3:B20" si="1">MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <v>Nov</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>1943</v>
+        <f t="shared" ref="C3:C20" si="2">RIGHT(D3, 4)</f>
+        <v>1944</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="2"/>
-        <v>Ene</v>
+        <f t="shared" si="1"/>
+        <v>Dic</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1944</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
+        <f t="shared" si="2"/>
+        <v>1945</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
+        <f t="shared" si="2"/>
+        <v>1945</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f t="shared" si="1"/>
-        <v>7 y 8</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="2"/>
-        <v>Abr y May</v>
+        <f t="shared" si="1"/>
+        <v>Abr</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
+        <f t="shared" si="2"/>
+        <v>1945</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Jun</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
+        <f t="shared" si="2"/>
+        <v>1945</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f t="shared" si="1"/>
-        <v>10 y 11</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="2"/>
-        <v>Jul y Ago</v>
+        <f t="shared" si="1"/>
+        <v>Jul</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
+        <f t="shared" si="2"/>
+        <v>1945</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="2"/>
-        <v>Sep</v>
+        <f t="shared" si="1"/>
+        <v>Ago</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
+        <f t="shared" si="2"/>
+        <v>1945</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="2"/>
-        <v>Nov</v>
+        <f t="shared" si="1"/>
+        <v>Sep</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
+        <f t="shared" si="2"/>
+        <v>1945</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="2"/>
-        <v>Dic</v>
+        <f t="shared" si="1"/>
+        <v>Oct</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
+        <f t="shared" si="2"/>
+        <v>1945</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="2"/>
-        <v>Ene</v>
+        <f t="shared" si="1"/>
+        <v>Dic</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1945</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
+        <f t="shared" si="2"/>
+        <v>1946</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="2"/>
-        <v>Abr</v>
+        <f t="shared" si="1"/>
+        <v>Mar</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
+        <f t="shared" si="2"/>
+        <v>1946</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="2"/>
-        <v>May</v>
+        <f t="shared" si="1"/>
+        <v>Abr</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
+        <f t="shared" si="2"/>
+        <v>1946</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="2"/>
-        <v>Jun</v>
+        <f t="shared" si="1"/>
+        <v>May</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
+        <f t="shared" si="2"/>
+        <v>1946</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="2"/>
-        <v>Jul</v>
+        <f t="shared" si="1"/>
+        <v>Jun</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
+        <f t="shared" si="2"/>
+        <v>1946</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="2"/>
-        <v>Ago</v>
+        <f t="shared" si="1"/>
+        <v>Jul</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
+        <f t="shared" si="2"/>
+        <v>1946</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Oct</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
+        <f t="shared" si="2"/>
+        <v>1946</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <f t="shared" si="1"/>
-        <v>23 y 24</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="2"/>
-        <v>Nov y Dic</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="2"/>
-        <v>Abr</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>1946</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="2"/>
-        <v>Sep</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>1946</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="2"/>
-        <v>Oct</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>1946</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1262,12 +1610,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,355 +1634,6 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>SUBSTITUTE(LEFT(D2,FIND("/",D2) - 1), "No.", "",1)</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f>MID(D2, FIND("/", D2) + 1, FIND( "!", SUBSTITUTE(D2, "/", "!", 2) ) - 2 - FIND("/", D2) + 1 )</f>
-        <v>Oct</v>
-      </c>
-      <c r="C2" t="str">
-        <f>RIGHT(D2, 4)</f>
-        <v>1944</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A20" si="0">SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B20" si="1">MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
-        <v>Nov</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C20" si="2">RIGHT(D3, 4)</f>
-        <v>1944</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>Dic</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="2"/>
-        <v>1944</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>Feb</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>Mar</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abr</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="1"/>
-        <v>Jun</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="1"/>
-        <v>Jul</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="1"/>
-        <v>Ago</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="1"/>
-        <v>Sep</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="1"/>
-        <v>Oct</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="1"/>
-        <v>Dic</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="1"/>
-        <v>Feb</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="2"/>
-        <v>1946</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>Mar</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="2"/>
-        <v>1946</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>Abr</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="2"/>
-        <v>1946</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="1"/>
-        <v>May</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="2"/>
-        <v>1946</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>Jun</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="2"/>
-        <v>1946</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="1"/>
-        <v>Jul</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="2"/>
-        <v>1946</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>Oct</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="2"/>
-        <v>1946</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>SUBSTITUTE(LEFT(D2,FIND("/",D2) - 1), "No.", "",1)</f>
         <v>3</v>
       </c>
       <c r="B2" t="str">
@@ -2029,11 +2028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2462,15 +2461,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2577,11 +2577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/parser/public/data/MetaEdiciones.xlsx
+++ b/parser/public/data/MetaEdiciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/dev/lab/mujeres-de-prensa/parser/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{28198A17-DA29-534A-9BAA-47CD12C48A05}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C95A61A8-FCB1-DA45-AA6B-58F57294C084}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1100" windowWidth="27360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,6 +853,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1258,6 +1261,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1607,6 +1611,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2024,6 +2029,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2462,6 +2468,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2573,6 +2580,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2581,7 +2589,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3758,5 +3766,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>